--- a/Lag details.xlsx
+++ b/Lag details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNLOC\Wind and Fisheries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36687AFE-0542-4D23-BA7B-C428C63AF92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4B825-5ABB-426A-9FB1-1815D0463EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5675F0F-2A2C-4011-AA7F-0B5984AA9351}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Species</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Example winds used for Annual CPUE for July 1997 - June 1998</t>
   </si>
   <si>
-    <t>Age of Fish spawned during chosen wind period during CPUE time</t>
-  </si>
-  <si>
     <t>Stocks et al 2015 JFB</t>
   </si>
   <si>
@@ -96,31 +93,22 @@
     <t>Oct-Feb</t>
   </si>
   <si>
-    <t>NEED TO CHECK THIS BREAM STUFF</t>
-  </si>
-  <si>
-    <t>4 (north), 5 (south)</t>
-  </si>
-  <si>
-    <t>5 (north), 6 (south)</t>
-  </si>
-  <si>
     <t>Gray et al. 2015</t>
   </si>
   <si>
-    <t>April-July '95</t>
-  </si>
-  <si>
-    <t>December-March '94</t>
-  </si>
-  <si>
-    <t>October - February '90</t>
-  </si>
-  <si>
-    <t>December-February '92 or December-February '93</t>
-  </si>
-  <si>
-    <t>December-February '91 or December-February '92</t>
+    <t>December 1991 - February 1992</t>
+  </si>
+  <si>
+    <t>December 1993 - March 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> December 1992 - February 1993</t>
+  </si>
+  <si>
+    <t>April - July 1995</t>
+  </si>
+  <si>
+    <t>October 1989 - February 1990</t>
   </si>
 </sst>
 </file>
@@ -156,9 +144,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FED844-D726-426F-A89F-42E9C2783330}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,12 +473,11 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,99 +491,93 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -605,18 +585,17 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
